--- a/nuriesMoneySubscription.xlsx
+++ b/nuriesMoneySubscription.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>9.9499999999999993</v>
+        <v>14.99</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -547,23 +547,23 @@
       </c>
       <c r="E3" s="2">
         <f>SUM(E9:E20)</f>
-        <v>91748.95</v>
+        <v>32573.27</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(F9:F20)</f>
-        <v>29153.060002499995</v>
+        <v>13344.5615065</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(G9:G20)</f>
-        <v>41647.228575000001</v>
+        <v>19063.659294999998</v>
       </c>
       <c r="H3" s="3">
         <f>G3/E3</f>
-        <v>0.45392594220424326</v>
+        <v>0.58525469794712037</v>
       </c>
       <c r="I3">
         <f>I20</f>
-        <v>1129</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -578,23 +578,23 @@
       </c>
       <c r="E4" s="2">
         <f>SUM(E21:E32)</f>
-        <v>233048.89999999997</v>
+        <v>140456.29999999999</v>
       </c>
       <c r="F4" s="2">
         <f>SUM(F21:F32)</f>
-        <v>79550.723455000014</v>
+        <v>59557.094485000001</v>
       </c>
       <c r="G4" s="2">
         <f>SUM(G21:G32)</f>
-        <v>113643.89065</v>
+        <v>85081.563550000006</v>
       </c>
       <c r="H4" s="3">
         <f>G4/E4</f>
-        <v>0.48763967841084005</v>
+        <v>0.60575113789840695</v>
       </c>
       <c r="I4">
         <f>I32</f>
-        <v>2901</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -609,23 +609,23 @@
       </c>
       <c r="E5" s="2">
         <f>SUM(E33:E44)</f>
-        <v>599557.14999999991</v>
+        <v>608893.80000000005</v>
       </c>
       <c r="F5" s="2">
         <f>SUM(F33:F44)</f>
-        <v>204652.8037925</v>
+        <v>258204.73510999998</v>
       </c>
       <c r="G5" s="2">
         <f>SUM(G33:G44)</f>
-        <v>292361.14827499999</v>
+        <v>368863.90729999996</v>
       </c>
       <c r="H5" s="3">
         <f>G5/E5</f>
-        <v>0.48762849092034016</v>
+        <v>0.60579350175679225</v>
       </c>
       <c r="I5">
         <f>I44</f>
-        <v>7464</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -640,23 +640,23 @@
       </c>
       <c r="E6" s="2">
         <f>SUM(E3:E5)</f>
-        <v>924354.99999999988</v>
+        <v>781923.37</v>
       </c>
       <c r="F6" s="2">
         <f>SUM(F3:F5)</f>
-        <v>313356.58724999998</v>
+        <v>331106.39110149996</v>
       </c>
       <c r="G6" s="2">
         <f>SUM(G3:G5)</f>
-        <v>447652.26749999996</v>
+        <v>473009.13014499994</v>
       </c>
       <c r="H6" s="3">
         <f>G6/E6</f>
-        <v>0.48428608867805117</v>
+        <v>0.60493028894250844</v>
       </c>
       <c r="I6">
         <f>I5</f>
-        <v>7464</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -718,42 +718,42 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E44" si="0">L9+O9</f>
-        <v>5960.0499999999993</v>
+        <v>1499</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F44" si="1">G9-M9</f>
-        <v>-755.96645250000006</v>
+        <v>71.954050000000009</v>
       </c>
       <c r="G9" s="2">
         <f>N9</f>
-        <v>-1079.9520750000001</v>
+        <v>102.79150000000001</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H44" si="2">G9/E9</f>
-        <v>-0.18119849246231159</v>
+        <v>6.8573382254836571E-2</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" ref="I9:I44" si="3">K9+J9</f>
-        <v>599</v>
+        <v>100</v>
       </c>
       <c r="J9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="4">
         <f>$B$25</f>
-        <v>599</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" ref="L9:L44" si="4">K9*$B$2</f>
-        <v>5960.0499999999993</v>
+        <v>1499</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" ref="M9:M44" si="5">G9*$B$13</f>
-        <v>-323.98562250000003</v>
+        <v>30.837450000000004</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ref="N9:N44" si="6">K9*$B$22</f>
-        <v>-1079.9520750000001</v>
+        <v>102.79150000000001</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
@@ -768,51 +768,51 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>4965.0499999999993</v>
+        <v>1409.06</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>2388.6382975000001</v>
+        <v>704.63680700000009</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ref="G10:G44" si="7">N10+P10</f>
-        <v>3412.3404250000003</v>
+        <v>1006.62401</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="2"/>
-        <v>0.68727211709851876</v>
+        <v>0.71439400025548949</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>499</v>
+        <v>94</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" ref="J10:J44" si="8">ROUND(I9*(1-$B$12), 0)</f>
-        <v>539</v>
+        <v>91</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" ref="K10:K44" si="9">MIN(ROUND(M9/$B$11, 0), ROUND(I9*$B$28, 0))</f>
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>-398</v>
+        <v>44.97</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="5"/>
-        <v>1023.7021275000001</v>
+        <v>301.98720299999997</v>
       </c>
       <c r="N10" s="2">
         <f t="shared" si="6"/>
-        <v>72.117000000000004</v>
+        <v>3.0837450000000004</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" ref="O10:O44" si="10">J10*$B$2</f>
-        <v>5363.0499999999993</v>
+        <v>1364.09</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ref="P10:P44" si="11">J10*$B$23</f>
-        <v>3340.2234250000001</v>
+        <v>1003.540265</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -820,58 +820,58 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>5562.0499999999993</v>
+        <v>1603.93</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>1808.9154475</v>
+        <v>678.99083350000001</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="7"/>
-        <v>2584.164925</v>
+        <v>969.98690500000009</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="2"/>
-        <v>0.46460656142968876</v>
+        <v>0.60475638275984611</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>559</v>
+        <v>107</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="8"/>
-        <v>449</v>
+        <v>86</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" si="4"/>
-        <v>1094.5</v>
+        <v>314.79000000000002</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="5"/>
-        <v>775.24947750000001</v>
+        <v>290.99607150000003</v>
       </c>
       <c r="N11" s="2">
         <f t="shared" si="6"/>
-        <v>-198.32175000000001</v>
+        <v>21.586215000000003</v>
       </c>
       <c r="O11" s="2">
         <f t="shared" si="10"/>
-        <v>4467.5499999999993</v>
+        <v>1289.1400000000001</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="11"/>
-        <v>2782.4866750000001</v>
+        <v>948.40069000000005</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -879,58 +879,58 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>5969.9999999999991</v>
+        <v>1813.79</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>2059.5715</v>
+        <v>766.06440049999992</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="7"/>
-        <v>2942.2449999999999</v>
+        <v>1094.3777149999999</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>0.49283835845896151</v>
+        <v>0.60336517182253724</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>121</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="8"/>
-        <v>503</v>
+        <v>97</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="9"/>
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="L12" s="2">
         <f t="shared" si="4"/>
-        <v>965.15</v>
+        <v>359.76</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" si="5"/>
-        <v>882.67349999999999</v>
+        <v>328.31331449999993</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" si="6"/>
-        <v>-174.883725</v>
+        <v>24.669960000000003</v>
       </c>
       <c r="O12" s="2">
         <f t="shared" si="10"/>
-        <v>5004.8499999999995</v>
+        <v>1454.03</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="11"/>
-        <v>3117.128725</v>
+        <v>1069.7077549999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -945,51 +945,51 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>6467.5</v>
+        <v>2053.63</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>2203.6691249999999</v>
+        <v>868.57704850000016</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="7"/>
-        <v>3148.0987499999997</v>
+        <v>1240.8243550000002</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="2"/>
-        <v>0.48675666795516037</v>
+        <v>0.60421027887204615</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>650</v>
+        <v>137</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="8"/>
-        <v>540</v>
+        <v>110</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="9"/>
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="4"/>
-        <v>1094.5</v>
+        <v>404.73</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="5"/>
-        <v>944.42962499999987</v>
+        <v>372.24730650000004</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" si="6"/>
-        <v>-198.32175000000001</v>
+        <v>27.753705000000004</v>
       </c>
       <c r="O13" s="2">
         <f t="shared" si="10"/>
-        <v>5373</v>
+        <v>1648.9</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="11"/>
-        <v>3346.4204999999997</v>
+        <v>1213.0706500000001</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -998,51 +998,51 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>6994.85</v>
+        <v>2323.4499999999998</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>2388.7806074999999</v>
+        <v>986.52877750000016</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="7"/>
-        <v>3412.5437249999995</v>
+        <v>1409.3268250000001</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>0.48786517580791572</v>
+        <v>0.60656645290408673</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>703</v>
+        <v>155</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="8"/>
-        <v>585</v>
+        <v>125</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="9"/>
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="4"/>
-        <v>1174.0999999999999</v>
+        <v>449.7</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="5"/>
-        <v>1023.7631174999998</v>
+        <v>422.7980475</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" si="6"/>
-        <v>-212.74515000000002</v>
+        <v>30.837450000000004</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" si="10"/>
-        <v>5820.75</v>
+        <v>1873.75</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="11"/>
-        <v>3625.2888749999997</v>
+        <v>1378.4893750000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1054,51 +1054,51 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>7571.9499999999989</v>
+        <v>2623.25</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>2584.3818525000002</v>
+        <v>1112.9195875</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="7"/>
-        <v>3691.9740750000001</v>
+        <v>1589.885125</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="2"/>
-        <v>0.48758563844188096</v>
+        <v>0.60607457352520733</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>761</v>
+        <v>175</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="8"/>
-        <v>633</v>
+        <v>141</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="9"/>
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="4"/>
-        <v>1273.5999999999999</v>
+        <v>509.66</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="5"/>
-        <v>1107.5922224999999</v>
+        <v>476.96553749999998</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="6"/>
-        <v>-230.77440000000001</v>
+        <v>34.949110000000005</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="10"/>
-        <v>6298.3499999999995</v>
+        <v>2113.59</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="11"/>
-        <v>3922.7484749999999</v>
+        <v>1554.936015</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1114,51 +1114,51 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>8188.8499999999985</v>
+        <v>2968.02</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>2797.3349074999996</v>
+        <v>1255.4690190000001</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="7"/>
-        <v>3996.1927249999999</v>
+        <v>1793.5271700000001</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="2"/>
-        <v>0.48800414282835813</v>
+        <v>0.60428405805890795</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>823</v>
+        <v>198</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="8"/>
-        <v>685</v>
+        <v>159</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="9"/>
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="4"/>
-        <v>1373.1</v>
+        <v>584.61</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" si="5"/>
-        <v>1198.8578175</v>
+        <v>538.05815099999995</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="6"/>
-        <v>-248.80365</v>
+        <v>40.088685000000005</v>
       </c>
       <c r="O16" s="2">
         <f t="shared" si="10"/>
-        <v>6815.7499999999991</v>
+        <v>2383.41</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" si="11"/>
-        <v>4244.9963749999997</v>
+        <v>1753.4384850000001</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,51 +1174,51 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>8865.4500000000007</v>
+        <v>3357.7599999999998</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>3025.1156774999999</v>
+        <v>1421.177072</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="7"/>
-        <v>4321.5938249999999</v>
+        <v>2030.25296</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="2"/>
-        <v>0.48746468876368371</v>
+        <v>0.60464504908033934</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>891</v>
+        <v>224</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="8"/>
-        <v>741</v>
+        <v>180</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="4"/>
-        <v>1492.5</v>
+        <v>659.56000000000006</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" si="5"/>
-        <v>1296.4781475</v>
+        <v>609.07588799999996</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="6"/>
-        <v>-270.43875000000003</v>
+        <v>45.228260000000006</v>
       </c>
       <c r="O17" s="2">
         <f t="shared" si="10"/>
-        <v>7372.95</v>
+        <v>2698.2</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" si="11"/>
-        <v>4592.0325750000002</v>
+        <v>1985.0246999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1234,51 +1234,51 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>9591.7999999999993</v>
+        <v>3792.4700000000003</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>3274.5862100000004</v>
+        <v>1610.0437465</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="7"/>
-        <v>4677.9803000000002</v>
+        <v>2300.0624950000001</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>0.4877061969599033</v>
+        <v>0.60648139471109852</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>964</v>
+        <v>253</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="8"/>
-        <v>802</v>
+        <v>204</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="9"/>
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="4"/>
-        <v>1611.8999999999999</v>
+        <v>734.51</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="5"/>
-        <v>1403.39409</v>
+        <v>690.01874850000002</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="6"/>
-        <v>-292.07384999999999</v>
+        <v>50.367835000000007</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="10"/>
-        <v>7979.9</v>
+        <v>3057.96</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="11"/>
-        <v>4970.0541499999999</v>
+        <v>2249.6946600000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1287,58 +1287,58 @@
       </c>
       <c r="B19" s="2">
         <f>($B$29*$B$2)+$B$30+($B$2*$B$31)+$B$32</f>
-        <v>0.8129249999999999</v>
+        <v>1.0220850000000001</v>
       </c>
       <c r="D19" s="1">
         <v>11</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>10377.849999999999</v>
+        <v>4287.1400000000003</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>3544.4844574999997</v>
+        <v>1815.788583</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="7"/>
-        <v>5063.5492249999998</v>
+        <v>2593.98369</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="2"/>
-        <v>0.48791890661360499</v>
+        <v>0.60506157718199072</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="3"/>
-        <v>1043</v>
+        <v>286</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="8"/>
-        <v>868</v>
+        <v>230</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="9"/>
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="L19" s="2">
         <f t="shared" si="4"/>
-        <v>1741.2499999999998</v>
+        <v>839.44</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" si="5"/>
-        <v>1519.0647674999998</v>
+        <v>778.19510700000001</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="6"/>
-        <v>-315.51187500000003</v>
+        <v>57.563240000000008</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="10"/>
-        <v>8636.5999999999985</v>
+        <v>3447.7000000000003</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="11"/>
-        <v>5379.0610999999999</v>
+        <v>2536.4204500000001</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1347,58 +1347,58 @@
       </c>
       <c r="B20" s="2">
         <f>B2-(B18+B19)</f>
-        <v>6.1970749999999999</v>
+        <v>11.027915</v>
       </c>
       <c r="D20" s="1">
         <v>12</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>11233.55</v>
+        <v>4841.7700000000004</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>3833.5483724999995</v>
+        <v>2052.4115815</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="7"/>
-        <v>5476.4976749999996</v>
+        <v>2932.016545</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="2"/>
-        <v>0.48751264515669579</v>
+        <v>0.60556708497099199</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="3"/>
-        <v>1129</v>
+        <v>323</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="8"/>
-        <v>939</v>
+        <v>260</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="4"/>
-        <v>1890.4999999999998</v>
+        <v>944.37</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="5"/>
-        <v>1642.9493024999999</v>
+        <v>879.60496349999994</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="6"/>
-        <v>-342.55575000000005</v>
+        <v>64.758645000000001</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="10"/>
-        <v>9343.0499999999993</v>
+        <v>3897.4</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="11"/>
-        <v>5819.0534250000001</v>
+        <v>2867.2579000000001</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1407,58 +1407,58 @@
       </c>
       <c r="B21" s="4">
         <f>FLOOR(1/B12, 1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>13</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>12148.949999999999</v>
+        <v>5471.35</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>4148.6400025000003</v>
+        <v>2320.6322825000002</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="7"/>
-        <v>5926.6285749999997</v>
+        <v>3315.188975</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="2"/>
-        <v>0.48783051827524193</v>
+        <v>0.60591791331207101</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="3"/>
-        <v>1221</v>
+        <v>365</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="8"/>
-        <v>1016</v>
+        <v>294</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="4"/>
-        <v>2039.7499999999998</v>
+        <v>1064.29</v>
       </c>
       <c r="M21" s="2">
         <f t="shared" si="5"/>
-        <v>1777.9885724999999</v>
+        <v>994.55669249999994</v>
       </c>
       <c r="N21" s="2">
         <f t="shared" si="6"/>
-        <v>-369.599625</v>
+        <v>72.981965000000002</v>
       </c>
       <c r="O21" s="2">
         <f t="shared" si="10"/>
-        <v>10109.199999999999</v>
+        <v>4407.0600000000004</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" si="11"/>
-        <v>6296.2281999999996</v>
+        <v>3242.2070100000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1467,58 +1467,58 @@
       </c>
       <c r="B22" s="2">
         <f>B20-B11</f>
-        <v>-1.8029250000000001</v>
+        <v>1.0279150000000001</v>
       </c>
       <c r="D22" s="1">
         <v>14</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>13143.949999999999</v>
+        <v>6175.88</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>4487.2352525000006</v>
+        <v>2620.4506860000001</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="7"/>
-        <v>6410.3360750000002</v>
+        <v>3743.5009800000003</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="2"/>
-        <v>0.48770240871275383</v>
+        <v>0.6061485942084367</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="3"/>
-        <v>1321</v>
+        <v>412</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="8"/>
-        <v>1099</v>
+        <v>332</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="9"/>
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="4"/>
-        <v>2208.8999999999996</v>
+        <v>1199.2</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="5"/>
-        <v>1923.1008225</v>
+        <v>1123.0502940000001</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" si="6"/>
-        <v>-400.24935000000005</v>
+        <v>82.233200000000011</v>
       </c>
       <c r="O22" s="2">
         <f t="shared" si="10"/>
-        <v>10935.05</v>
+        <v>4976.68</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="11"/>
-        <v>6810.5854250000002</v>
+        <v>3661.2677800000001</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1527,58 +1527,58 @@
       </c>
       <c r="B23" s="2">
         <f>B20</f>
-        <v>6.1970749999999999</v>
+        <v>11.027915</v>
       </c>
       <c r="D23" s="1">
         <v>15</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>14218.55</v>
+        <v>6985.34</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>4854.9341225000007</v>
+        <v>2960.3058730000002</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="7"/>
-        <v>6935.620175</v>
+        <v>4229.00839</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="2"/>
-        <v>0.48778674161570629</v>
+        <v>0.6054119613361697</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" si="3"/>
-        <v>1429</v>
+        <v>466</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="8"/>
-        <v>1189</v>
+        <v>375</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="9"/>
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" si="4"/>
-        <v>2388</v>
+        <v>1364.09</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="5"/>
-        <v>2080.6860524999997</v>
+        <v>1268.7025169999999</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" si="6"/>
-        <v>-432.702</v>
+        <v>93.540265000000005</v>
       </c>
       <c r="O23" s="2">
         <f t="shared" si="10"/>
-        <v>11830.55</v>
+        <v>5621.25</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="11"/>
-        <v>7368.3221750000002</v>
+        <v>4135.4681250000003</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1587,58 +1587,58 @@
       </c>
       <c r="B24" s="2">
         <f>B22+((B21-1)*B23)</f>
-        <v>53.970749999999995</v>
+        <v>111.30706499999999</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>15382.699999999999</v>
+        <v>7899.7300000000005</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>5250.4745649999995</v>
+        <v>3347.1978435000001</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="7"/>
-        <v>7500.6779499999993</v>
+        <v>4781.7112050000005</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="2"/>
-        <v>0.48760477354430626</v>
+        <v>0.60530058685550014</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="3"/>
-        <v>1546</v>
+        <v>527</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="8"/>
-        <v>1286</v>
+        <v>424</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="9"/>
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" si="4"/>
-        <v>2587</v>
+        <v>1543.97</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="5"/>
-        <v>2250.2033849999998</v>
+        <v>1434.5133615000002</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" si="6"/>
-        <v>-468.76050000000004</v>
+        <v>105.87524500000001</v>
       </c>
       <c r="O24" s="2">
         <f t="shared" si="10"/>
-        <v>12795.699999999999</v>
+        <v>6355.76</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="11"/>
-        <v>7969.4384499999996</v>
+        <v>4675.8359600000003</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1646,58 +1646,58 @@
         <v>20</v>
       </c>
       <c r="B25" s="4">
-        <v>599</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>16636.399999999998</v>
+        <v>8934.0399999999991</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="1"/>
-        <v>5679.45658</v>
+        <v>3788.8461379999999</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="7"/>
-        <v>8113.5093999999999</v>
+        <v>5412.6373400000002</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="2"/>
-        <v>0.48769622033613047</v>
+        <v>0.60584431455422194</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="3"/>
-        <v>1672</v>
+        <v>596</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="8"/>
-        <v>1391</v>
+        <v>480</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="9"/>
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="4"/>
-        <v>2795.95</v>
+        <v>1738.84</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="5"/>
-        <v>2434.0528199999999</v>
+        <v>1623.7912020000001</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" si="6"/>
-        <v>-506.62192500000003</v>
+        <v>119.23814000000002</v>
       </c>
       <c r="O25" s="2">
         <f t="shared" si="10"/>
-        <v>13840.449999999999</v>
+        <v>7195.2</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" si="11"/>
-        <v>8620.1313250000003</v>
+        <v>5293.3991999999998</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1706,51 +1706,51 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>17999.55</v>
+        <v>10088.27</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="1"/>
-        <v>6144.9560724999992</v>
+        <v>4278.2507564999996</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="7"/>
-        <v>8778.5086749999991</v>
+        <v>6111.786795</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="2"/>
-        <v>0.48770711906686554</v>
+        <v>0.60583100918195087</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="3"/>
-        <v>1809</v>
+        <v>673</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="8"/>
-        <v>1505</v>
+        <v>542</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="9"/>
-        <v>304</v>
+        <v>131</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="4"/>
-        <v>3024.7999999999997</v>
+        <v>1963.69</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="5"/>
-        <v>2633.5526024999995</v>
+        <v>1833.5360384999999</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="6"/>
-        <v>-548.08920000000001</v>
+        <v>134.65686500000001</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="10"/>
-        <v>14974.749999999998</v>
+        <v>8124.58</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" si="11"/>
-        <v>9326.5978749999995</v>
+        <v>5977.1299300000001</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1762,51 +1762,51 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>19472.149999999998</v>
+        <v>11392.400000000001</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>6646.9730424999998</v>
+        <v>4830.8507800000007</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" si="7"/>
-        <v>9495.6757749999997</v>
+        <v>6901.2154</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="2"/>
-        <v>0.48765420228377454</v>
+        <v>0.60577362101049814</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="3"/>
-        <v>1957</v>
+        <v>760</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="8"/>
-        <v>1628</v>
+        <v>612</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="9"/>
-        <v>329</v>
+        <v>148</v>
       </c>
       <c r="L27" s="2">
         <f t="shared" si="4"/>
-        <v>3273.5499999999997</v>
+        <v>2218.52</v>
       </c>
       <c r="M27" s="2">
         <f t="shared" si="5"/>
-        <v>2848.7027324999999</v>
+        <v>2070.3646199999998</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="6"/>
-        <v>-593.16232500000001</v>
+        <v>152.13142000000002</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="10"/>
-        <v>16198.599999999999</v>
+        <v>9173.880000000001</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="11"/>
-        <v>10088.838099999999</v>
+        <v>6749.0839800000003</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>21064.149999999998</v>
+        <v>12876.41</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="1"/>
-        <v>7189.8454425</v>
+        <v>5462.0852894999998</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="7"/>
-        <v>10271.207774999999</v>
+        <v>7802.9789849999997</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="2"/>
-        <v>0.48761558263684979</v>
+        <v>0.60599025543610363</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="3"/>
-        <v>2117</v>
+        <v>859</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="8"/>
-        <v>1761</v>
+        <v>692</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="9"/>
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="L28" s="2">
         <f t="shared" si="4"/>
-        <v>3542.2</v>
+        <v>2503.33</v>
       </c>
       <c r="M28" s="2">
         <f t="shared" si="5"/>
-        <v>3081.3623324999994</v>
+        <v>2340.8936954999999</v>
       </c>
       <c r="N28" s="2">
         <f t="shared" si="6"/>
-        <v>-641.84130000000005</v>
+        <v>171.66180500000002</v>
       </c>
       <c r="O28" s="2">
         <f t="shared" si="10"/>
-        <v>17521.949999999997</v>
+        <v>10373.08</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" si="11"/>
-        <v>10913.049074999999</v>
+        <v>7631.31718</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1880,51 +1880,51 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>22785.5</v>
+        <v>14555.29</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="1"/>
-        <v>7777.9112249999998</v>
+        <v>6172.6738255</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="7"/>
-        <v>11111.301749999999</v>
+        <v>8818.1054650000005</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="2"/>
-        <v>0.48764792302121956</v>
+        <v>0.60583509260207113</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="3"/>
-        <v>2290</v>
+        <v>971</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="8"/>
-        <v>1905</v>
+        <v>782</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="9"/>
-        <v>385</v>
+        <v>189</v>
       </c>
       <c r="L29" s="2">
         <f t="shared" si="4"/>
-        <v>3830.7499999999995</v>
+        <v>2833.11</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" si="5"/>
-        <v>3333.3905249999993</v>
+        <v>2645.4316395000001</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" si="6"/>
-        <v>-694.126125</v>
+        <v>194.27593500000003</v>
       </c>
       <c r="O29" s="2">
         <f t="shared" si="10"/>
-        <v>18954.75</v>
+        <v>11722.18</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" si="11"/>
-        <v>11805.427874999999</v>
+        <v>8623.8295300000009</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1939,51 +1939,51 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>24656.1</v>
+        <v>16459.02</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>8414.2462950000008</v>
+        <v>6978.055468999999</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="7"/>
-        <v>12020.351850000001</v>
+        <v>9968.6506699999991</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="2"/>
-        <v>0.48752040468687269</v>
+        <v>0.60566489803159596</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>2478</v>
+        <v>1098</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="8"/>
-        <v>2061</v>
+        <v>884</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="9"/>
-        <v>417</v>
+        <v>214</v>
       </c>
       <c r="L30" s="2">
         <f t="shared" si="4"/>
-        <v>4149.1499999999996</v>
+        <v>3207.86</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" si="5"/>
-        <v>3606.1055550000001</v>
+        <v>2990.5952009999996</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" si="6"/>
-        <v>-751.81972500000006</v>
+        <v>219.97381000000001</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" si="10"/>
-        <v>20506.949999999997</v>
+        <v>13251.16</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" si="11"/>
-        <v>12772.171575</v>
+        <v>9748.6768599999996</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1998,51 +1998,51 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>26675.95</v>
+        <v>18602.59</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="1"/>
-        <v>9104.4506524999997</v>
+        <v>7885.9497604999997</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="7"/>
-        <v>13006.358075</v>
+        <v>11265.642515</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="2"/>
-        <v>0.48756869296126287</v>
+        <v>0.6055953775791435</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="3"/>
-        <v>2681</v>
+        <v>1241</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="8"/>
-        <v>2230</v>
+        <v>999</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="9"/>
-        <v>451</v>
+        <v>242</v>
       </c>
       <c r="L31" s="2">
         <f t="shared" si="4"/>
-        <v>4487.45</v>
+        <v>3627.58</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" si="5"/>
-        <v>3901.9074224999999</v>
+        <v>3379.6927544999999</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" si="6"/>
-        <v>-813.11917500000004</v>
+        <v>248.75543000000005</v>
       </c>
       <c r="O31" s="2">
         <f t="shared" si="10"/>
-        <v>22188.5</v>
+        <v>14975.01</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" si="11"/>
-        <v>13819.47725</v>
+        <v>11016.887085</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2057,51 +2057,51 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>28864.949999999997</v>
+        <v>21015.98</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>9851.6002024999998</v>
+        <v>8911.7957810000007</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="7"/>
-        <v>14073.714575</v>
+        <v>12731.136830000001</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="2"/>
-        <v>0.48757107062371496</v>
+        <v>0.60578363845036021</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="3"/>
-        <v>2901</v>
+        <v>1402</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="8"/>
-        <v>2413</v>
+        <v>1129</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="9"/>
-        <v>488</v>
+        <v>273</v>
       </c>
       <c r="L32" s="2">
         <f t="shared" si="4"/>
-        <v>4855.5999999999995</v>
+        <v>4092.27</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" si="5"/>
-        <v>4222.1143725000002</v>
+        <v>3819.3410490000001</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" si="6"/>
-        <v>-879.82740000000001</v>
+        <v>280.62079500000004</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" si="10"/>
-        <v>24009.35</v>
+        <v>16923.71</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" si="11"/>
-        <v>14953.541975</v>
+        <v>12450.516035000001</v>
       </c>
     </row>
     <row r="33" spans="4:16">
@@ -2110,51 +2110,51 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>31233.049999999996</v>
+        <v>23744.160000000003</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>10660.032897499999</v>
+        <v>10071.752152000001</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="7"/>
-        <v>15228.618424999999</v>
+        <v>14388.217360000001</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="2"/>
-        <v>0.48758025312929737</v>
+        <v>0.60596868282558736</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="3"/>
-        <v>3139</v>
+        <v>1584</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="8"/>
-        <v>2611</v>
+        <v>1276</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="9"/>
-        <v>528</v>
+        <v>308</v>
       </c>
       <c r="L33" s="2">
         <f t="shared" si="4"/>
-        <v>5253.5999999999995</v>
+        <v>4616.92</v>
       </c>
       <c r="M33" s="2">
         <f t="shared" si="5"/>
-        <v>4568.5855274999994</v>
+        <v>4316.4652079999996</v>
       </c>
       <c r="N33" s="2">
         <f t="shared" si="6"/>
-        <v>-951.94440000000009</v>
+        <v>316.59782000000007</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" si="10"/>
-        <v>25979.449999999997</v>
+        <v>19127.240000000002</v>
       </c>
       <c r="P33" s="2">
         <f t="shared" si="11"/>
-        <v>16180.562824999999</v>
+        <v>14071.61954</v>
       </c>
     </row>
     <row r="34" spans="4:16">
@@ -2163,51 +2163,51 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>33790.199999999997</v>
+        <v>26817.11</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>11534.08669</v>
+        <v>11374.257954500001</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="7"/>
-        <v>16477.2667</v>
+        <v>16248.939935</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>0.48763448277903065</v>
+        <v>0.60591689167848439</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="3"/>
-        <v>3396</v>
+        <v>1789</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" si="8"/>
-        <v>2825</v>
+        <v>1441</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="9"/>
-        <v>571</v>
+        <v>348</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" si="4"/>
-        <v>5681.45</v>
+        <v>5216.5200000000004</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="5"/>
-        <v>4943.18001</v>
+        <v>4874.6819804999996</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" si="6"/>
-        <v>-1029.4701750000002</v>
+        <v>357.71442000000002</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="10"/>
-        <v>28108.749999999996</v>
+        <v>21600.59</v>
       </c>
       <c r="P34" s="2">
         <f t="shared" si="11"/>
-        <v>17506.736874999999</v>
+        <v>15891.225515</v>
       </c>
     </row>
     <row r="35" spans="4:16">
@@ -2216,51 +2216,51 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>36556.299999999996</v>
+        <v>30309.780000000002</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>12476.837485</v>
+        <v>12850.910891</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="7"/>
-        <v>17824.053550000001</v>
+        <v>18358.44413</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>0.48757816163014317</v>
+        <v>0.60569374406544685</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="3"/>
-        <v>3674</v>
+        <v>2022</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="8"/>
-        <v>3056</v>
+        <v>1628</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="9"/>
-        <v>618</v>
+        <v>394</v>
       </c>
       <c r="L35" s="2">
         <f t="shared" si="4"/>
-        <v>6149.0999999999995</v>
+        <v>5906.06</v>
       </c>
       <c r="M35" s="2">
         <f t="shared" si="5"/>
-        <v>5347.2160649999996</v>
+        <v>5507.5332389999994</v>
       </c>
       <c r="N35" s="2">
         <f t="shared" si="6"/>
-        <v>-1114.2076500000001</v>
+        <v>404.99851000000007</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="10"/>
-        <v>30407.199999999997</v>
+        <v>24403.72</v>
       </c>
       <c r="P35" s="2">
         <f t="shared" si="11"/>
-        <v>18938.261200000001</v>
+        <v>17953.445619999999</v>
       </c>
     </row>
     <row r="36" spans="4:16">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" si="0"/>
-        <v>39551.249999999993</v>
+        <v>34252.15</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>13502.5611875</v>
+        <v>14524.150042500001</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="7"/>
-        <v>19289.373124999998</v>
+        <v>20748.785775</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="2"/>
-        <v>0.48770577731424425</v>
+        <v>0.60576593805060408</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="3"/>
-        <v>3975</v>
+        <v>2285</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="8"/>
-        <v>3307</v>
+        <v>1840</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="9"/>
-        <v>668</v>
+        <v>445</v>
       </c>
       <c r="L36" s="2">
         <f t="shared" si="4"/>
-        <v>6646.5999999999995</v>
+        <v>6670.55</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" si="5"/>
-        <v>5786.8119374999997</v>
+        <v>6224.6357324999999</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" si="6"/>
-        <v>-1204.3539000000001</v>
+        <v>457.42217500000004</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="10"/>
-        <v>32904.649999999994</v>
+        <v>27581.600000000002</v>
       </c>
       <c r="P36" s="2">
         <f t="shared" si="11"/>
-        <v>20493.727025</v>
+        <v>20291.363600000001</v>
       </c>
     </row>
     <row r="37" spans="4:16">
@@ -2322,51 +2322,51 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" si="0"/>
-        <v>42794.95</v>
+        <v>38704.18</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>14608.733702500002</v>
+        <v>16410.853571</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="7"/>
-        <v>20869.619575000001</v>
+        <v>23444.076530000002</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="2"/>
-        <v>0.48766547396363363</v>
+        <v>0.60572466668974778</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="3"/>
-        <v>4301</v>
+        <v>2582</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="8"/>
-        <v>3578</v>
+        <v>2079</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="9"/>
-        <v>723</v>
+        <v>503</v>
       </c>
       <c r="L37" s="2">
         <f t="shared" si="4"/>
-        <v>7193.8499999999995</v>
+        <v>7539.97</v>
       </c>
       <c r="M37" s="2">
         <f t="shared" si="5"/>
-        <v>6260.8858725</v>
+        <v>7033.2229590000006</v>
       </c>
       <c r="N37" s="2">
         <f t="shared" si="6"/>
-        <v>-1303.5147750000001</v>
+        <v>517.04124500000012</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="10"/>
-        <v>35601.1</v>
+        <v>31164.21</v>
       </c>
       <c r="P37" s="2">
         <f t="shared" si="11"/>
-        <v>22173.13435</v>
+        <v>22927.035285000002</v>
       </c>
     </row>
     <row r="38" spans="4:16">
@@ -2375,51 +2375,51 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" si="0"/>
-        <v>46307.299999999996</v>
+        <v>43740.82</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>15804.030935000001</v>
+        <v>18549.619179000001</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="7"/>
-        <v>22577.18705</v>
+        <v>26499.455969999999</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="2"/>
-        <v>0.48755135907297559</v>
+        <v>0.60582897097036592</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="3"/>
-        <v>4654</v>
+        <v>2918</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="8"/>
-        <v>3871</v>
+        <v>2350</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="9"/>
-        <v>783</v>
+        <v>568</v>
       </c>
       <c r="L38" s="2">
         <f t="shared" si="4"/>
-        <v>7790.8499999999995</v>
+        <v>8514.32</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" si="5"/>
-        <v>6773.1561149999998</v>
+        <v>7949.8367909999997</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" si="6"/>
-        <v>-1411.6902750000002</v>
+        <v>583.85572000000002</v>
       </c>
       <c r="O38" s="2">
         <f t="shared" si="10"/>
-        <v>38516.449999999997</v>
+        <v>35226.5</v>
       </c>
       <c r="P38" s="2">
         <f t="shared" si="11"/>
-        <v>23988.877325000001</v>
+        <v>25915.60025</v>
       </c>
     </row>
     <row r="39" spans="4:16">
@@ -2428,51 +2428,51 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" si="0"/>
-        <v>50108.2</v>
+        <v>49422.03</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="1"/>
-        <v>17102.728790000001</v>
+        <v>20957.325028499996</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="7"/>
-        <v>24432.469700000001</v>
+        <v>29939.035754999997</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="2"/>
-        <v>0.48759424006450047</v>
+        <v>0.60578320548548892</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="3"/>
-        <v>5036</v>
+        <v>3297</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="8"/>
-        <v>4189</v>
+        <v>2655</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="9"/>
-        <v>847</v>
+        <v>642</v>
       </c>
       <c r="L39" s="2">
         <f t="shared" si="4"/>
-        <v>8427.65</v>
+        <v>9623.58</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" si="5"/>
-        <v>7329.7409100000004</v>
+        <v>8981.7107264999995</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" si="6"/>
-        <v>-1527.077475</v>
+        <v>659.9214300000001</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="10"/>
-        <v>41680.549999999996</v>
+        <v>39798.449999999997</v>
       </c>
       <c r="P39" s="2">
         <f t="shared" si="11"/>
-        <v>25959.547175</v>
+        <v>29279.114324999999</v>
       </c>
     </row>
     <row r="40" spans="4:16">
@@ -2481,51 +2481,51 @@
       </c>
       <c r="E40" s="2">
         <f t="shared" si="0"/>
-        <v>54207.599999999991</v>
+        <v>55837.75</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>18503.56522</v>
+        <v>23680.288362500003</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="7"/>
-        <v>26433.6646</v>
+        <v>33828.983375000003</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="2"/>
-        <v>0.48763761170020448</v>
+        <v>0.60584431455422194</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" si="3"/>
-        <v>5448</v>
+        <v>3725</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="8"/>
-        <v>4532</v>
+        <v>3000</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="9"/>
-        <v>916</v>
+        <v>725</v>
       </c>
       <c r="L40" s="2">
         <f t="shared" si="4"/>
-        <v>9114.1999999999989</v>
+        <v>10867.75</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" si="5"/>
-        <v>7930.0993799999997</v>
+        <v>10148.6950125</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" si="6"/>
-        <v>-1651.4793000000002</v>
+        <v>745.23837500000013</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="10"/>
-        <v>45093.399999999994</v>
+        <v>44970</v>
       </c>
       <c r="P40" s="2">
         <f t="shared" si="11"/>
-        <v>28085.143899999999</v>
+        <v>33083.745000000003</v>
       </c>
     </row>
     <row r="41" spans="4:16">
@@ -2534,51 +2534,51 @@
       </c>
       <c r="E41" s="2">
         <f t="shared" si="0"/>
-        <v>58645.299999999996</v>
+        <v>63107.899999999994</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>20018.292034999999</v>
+        <v>26759.265504999996</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="7"/>
-        <v>28597.56005</v>
+        <v>38227.522149999997</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="2"/>
-        <v>0.4876360091942577</v>
+        <v>0.60574860120523744</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="3"/>
-        <v>5894</v>
+        <v>4210</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" si="8"/>
-        <v>4903</v>
+        <v>3390</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="9"/>
-        <v>991</v>
+        <v>820</v>
       </c>
       <c r="L41" s="2">
         <f t="shared" si="4"/>
-        <v>9860.4499999999989</v>
+        <v>12291.8</v>
       </c>
       <c r="M41" s="2">
         <f t="shared" si="5"/>
-        <v>8579.2680149999997</v>
+        <v>11468.256644999999</v>
       </c>
       <c r="N41" s="2">
         <f t="shared" si="6"/>
-        <v>-1786.6986750000001</v>
+        <v>842.89030000000014</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="10"/>
-        <v>48784.85</v>
+        <v>50816.1</v>
       </c>
       <c r="P41" s="2">
         <f t="shared" si="11"/>
-        <v>30384.258725</v>
+        <v>37384.631849999998</v>
       </c>
     </row>
     <row r="42" spans="4:16">
@@ -2587,51 +2587,51 @@
       </c>
       <c r="E42" s="2">
         <f t="shared" si="0"/>
-        <v>63451.149999999994</v>
+        <v>71307.430000000008</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>21659.923092500001</v>
+        <v>30239.854158499998</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="7"/>
-        <v>30942.747275000002</v>
+        <v>43199.791655000001</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="2"/>
-        <v>0.48766251320898052</v>
+        <v>0.60582454948944309</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="3"/>
-        <v>6377</v>
+        <v>4757</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="8"/>
-        <v>5305</v>
+        <v>3831</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="9"/>
-        <v>1072</v>
+        <v>926</v>
       </c>
       <c r="L42" s="2">
         <f t="shared" si="4"/>
-        <v>10666.4</v>
+        <v>13880.74</v>
       </c>
       <c r="M42" s="2">
         <f t="shared" si="5"/>
-        <v>9282.8241825000005</v>
+        <v>12959.937496500001</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" si="6"/>
-        <v>-1932.7356000000002</v>
+        <v>951.84929000000011</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="10"/>
-        <v>52784.749999999993</v>
+        <v>57426.69</v>
       </c>
       <c r="P42" s="2">
         <f t="shared" si="11"/>
-        <v>32875.482875000002</v>
+        <v>42247.942365000003</v>
       </c>
     </row>
     <row r="43" spans="4:16">
@@ -2640,51 +2640,51 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" si="0"/>
-        <v>68645.049999999988</v>
+        <v>80586.240000000005</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>23431.534297500002</v>
+        <v>34171.249728000003</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="7"/>
-        <v>33473.620425000001</v>
+        <v>48816.071040000003</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="2"/>
-        <v>0.48763341894280804</v>
+        <v>0.60576186505289242</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" si="3"/>
-        <v>6899</v>
+        <v>5376</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="8"/>
-        <v>5739</v>
+        <v>4329</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="9"/>
-        <v>1160</v>
+        <v>1047</v>
       </c>
       <c r="L43" s="2">
         <f t="shared" si="4"/>
-        <v>11542</v>
+        <v>15694.53</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="5"/>
-        <v>10042.086127500001</v>
+        <v>14644.821312</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" si="6"/>
-        <v>-2091.393</v>
+        <v>1076.2270050000002</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="10"/>
-        <v>57103.049999999996</v>
+        <v>64891.71</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="11"/>
-        <v>35565.013424999997</v>
+        <v>47739.844035000002</v>
       </c>
     </row>
     <row r="44" spans="4:16">
@@ -2693,51 +2693,51 @@
       </c>
       <c r="E44" s="2">
         <f t="shared" si="0"/>
-        <v>74266.799999999988</v>
+        <v>91064.25</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>25350.477460000002</v>
+        <v>38615.208537500002</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" si="7"/>
-        <v>36214.967799999999</v>
+        <v>55164.583624999999</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="2"/>
-        <v>0.48763334087371485</v>
+        <v>0.60577651081516626</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="3"/>
-        <v>7464</v>
+        <v>6075</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="8"/>
-        <v>6209</v>
+        <v>4892</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="9"/>
-        <v>1255</v>
+        <v>1183</v>
       </c>
       <c r="L44" s="2">
         <f t="shared" si="4"/>
-        <v>12487.25</v>
+        <v>17733.170000000002</v>
       </c>
       <c r="M44" s="2">
         <f t="shared" si="5"/>
-        <v>10864.490339999998</v>
+        <v>16549.375087500001</v>
       </c>
       <c r="N44" s="2">
         <f t="shared" si="6"/>
-        <v>-2262.6708750000003</v>
+        <v>1216.0234450000003</v>
       </c>
       <c r="O44" s="2">
         <f t="shared" si="10"/>
-        <v>61779.549999999996</v>
+        <v>73331.08</v>
       </c>
       <c r="P44" s="2">
         <f t="shared" si="11"/>
-        <v>38477.638675000002</v>
+        <v>53948.56018</v>
       </c>
     </row>
   </sheetData>
